--- a/DOC/結合テスト/契約管理結合テスト_エビデンス.xlsx
+++ b/DOC/結合テスト/契約管理結合テスト_エビデンス.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\ems\ems\DOC\結合テスト\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C661BA-ED20-41CB-AB07-E23FB0A639C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B4AA3169-506D-4F5F-AA67-495F72007D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="829" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18204" windowHeight="1392" tabRatio="829" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初期表示エビデンス" sheetId="6" r:id="rId1"/>
@@ -20,7 +15,8 @@
     <sheet name="更新処理入力チェックエビデンス" sheetId="10" r:id="rId5"/>
     <sheet name="新規処理入力チェックエビデンス" sheetId="11" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:R3"/>
 </workbook>
 </file>
 
@@ -596,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37D3849-DA6E-4582-B262-E80C19DA5C3D}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA22931D-4023-4F37-8901-137CA8EB6843}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
